--- a/MetaAI/MetaAIDOC.xlsx
+++ b/MetaAI/MetaAIDOC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IGOR\IGOR\IgorAyelloBorges\PROJETOS\FinancialMarketSimulatorRealData\MetaAI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8348631-74C0-42F8-B697-5E2637BBBAB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77D20427-A2E1-4B59-B49A-49482D5DB860}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{94286A15-74E0-4448-8809-569685BF6ECD}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Pergunta</t>
   </si>
@@ -292,6 +292,78 @@
   </si>
   <si>
     <t>pymssql._mssql.MSSQLDatabaseException: (20009, b'DB-Lib error message 20009, severity 9:\nUnable to connect: Adaptive Server is unavailable or does not exist (localhost)\nNet-Lib error during Connection refused (111)\nDB-Lib error message 20009, severity 9:\nUnable to connect: Adaptive Server is unavailable or does not exist (localhost)\nNet-Lib error during Connection refused (111)\n')</t>
+  </si>
+  <si>
+    <t>Criar tabela SegmentoClassificacao</t>
+  </si>
+  <si>
+    <t>Preciso gerar um script para criar uma tabela no SQL Server onde deverá constar a primary key identity ID, a sigla e o descritivo.</t>
+  </si>
+  <si>
+    <t>Criar tabela Segmento</t>
+  </si>
+  <si>
+    <t>Preciso gerar um script para criar uma tabela no SQL Server com o nome "Setor Econômico" onde deverá constar a primary key identity ID e o descritivo.</t>
+  </si>
+  <si>
+    <t>Criar tabela Subsetor</t>
+  </si>
+  <si>
+    <t>Preciso gerar um script para criar uma tabela no SQL Server com o nome "Subsetor" onde deverá constar a primary key identity ID e o descritivo.</t>
+  </si>
+  <si>
+    <t>Criar tabela SetorEconomico</t>
+  </si>
+  <si>
+    <t>Preciso gerar um script para criar uma tabela no SQL Server com o nome "Segmento" onde deverá constar a primary key identity ID e o descritivo.</t>
+  </si>
+  <si>
+    <t>Criar tabela Empresa</t>
+  </si>
+  <si>
+    <t>Preciso gerar um script para criar uma tabela no SQL Server com o nome "Empresa" onde deverá constar a primary key identity ID, Nome, código (sigla) fazendo chave estrangeira para as seguintes 
+tabelas dbo.SegmentoClassificacao (NÃO obrigatória), SetorEconomico (obrigatória), Subsetor (obrigatória) e Segmento (obrigatória).</t>
+  </si>
+  <si>
+    <t>Aqui está um exemplo de script SQL para criar uma tabela no SQL Server com as colunas que você mencionou:
+SQL
+CREATE TABLE [dbo].[Tabela_Siglas] (
+    [ID] INT IDENTITY(1,1) PRIMARY KEY,
+    [Sigla] VARCHAR(10) NOT NULL,
+    [Descritivo] VARCHAR(100) NOT NULL
+);
+Esse script cria uma tabela chamada Tabela_Siglas com as seguintes colunas:
+ID: uma coluna de tipo INT que serve como chave primária e é auto-incrementada usando a propriedade IDENTITY(1,1).
+Sigla: uma coluna de tipo VARCHAR(10) que armazena a sigla.
+Descritivo: uma coluna de tipo VARCHAR(100) que armazena o descritivo.
+Você pode executar esse script no SQL Server Management Studio ou em qualquer outro cliente SQL para criar a tabela.
+Lembre-se de que você pode ajustar os tipos de dados e as restrições de acordo com as necessidades específicas do seu aplicativo.</t>
+  </si>
+  <si>
+    <t>Aqui está um exemplo de script SQL para criar uma tabela no SQL Server com as colunas que você mencionou:
+SQL
+CREATE TABLE [dbo].[Setor_Economico] (
+    [ID] INT IDENTITY(1,1) PRIMARY KEY,
+    [Descritivo] VARCHAR(100) NOT NULL
+);
+Esse script cria uma tabela chamada Setor_Economico com as seguintes colunas:
+ID: uma coluna de tipo INT que serve como chave primária e é auto-incrementada usando a propriedade IDENTITY(1,1).
+Descritivo: uma coluna de tipo VARCHAR(100) que armazena o descritivo do setor econômico.
+Você pode executar esse script no SQL Server Management Studio ou em qualquer outro cliente SQL para criar a tabela.
+Lembre-se de que você pode ajustar os tipos de dados e as restrições de acordo com as necessidades específicas do seu aplicativo.</t>
+  </si>
+  <si>
+    <t>Aqui está um exemplo de script SQL para criar uma tabela no SQL Server com as colunas que você mencionou:
+SQL
+CREATE TABLE [dbo].[Subsetor] (
+    [ID] INT IDENTITY(1,1) PRIMARY KEY,
+    [Descritivo] VARCHAR(100) NOT NULL
+);
+Esse script cria uma tabela chamada Subsetor com as seguintes colunas:
+ID: uma coluna de tipo INT que serve como chave primária e é auto-incrementada usando a propriedade IDENTITY(1,1).
+Descritivo: uma coluna de tipo VARCHAR(100) que armazena o descritivo do subsetor.
+Você pode executar esse script no SQL Server Management Studio ou em qualquer outro cliente SQL para criar a tabela.
+Lembre-se de que você pode ajustar os tipos de dados e as restrições de acordo com as necessidades específicas do seu aplicativo.</t>
   </si>
 </sst>
 </file>
@@ -669,10 +741,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C306EA0C-B462-426C-9093-F405642008FF}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B12" sqref="B1:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -753,7 +825,7 @@
         <v>0.91527777777777775</v>
       </c>
       <c r="G3" s="6">
-        <f t="shared" ref="G3:G7" si="0">F3-E3</f>
+        <f t="shared" ref="G3:G8" si="0">F3-E3</f>
         <v>9.0277777777777457E-3</v>
       </c>
     </row>
@@ -824,6 +896,68 @@
       <c r="G7" s="3">
         <f t="shared" si="0"/>
         <v>1.388888888888884E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="360" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.96736111111111112</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0.96944444444444444</v>
+      </c>
+      <c r="G8" s="3">
+        <f t="shared" si="0"/>
+        <v>2.0833333333333259E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="315" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.96944444444444444</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="315" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
